--- a/FME_CoursePack02_Cost of Capital/Cost_of_Capital_Model02.xlsx
+++ b/FME_CoursePack02_Cost of Capital/Cost_of_Capital_Model02.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="AE3A" lockStructure="1"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="5" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CoverPage" sheetId="1" state="visible" r:id="rId1"/>
@@ -116,7 +116,7 @@
       <name val="Calibri"/>
       <family val="2"/>
       <i val="1"/>
-      <color theme="9" tint="-0.499984740745262"/>
+      <color theme="9" tint="-0.499954222235786"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -173,32 +173,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.7999511703848384"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.7999511703848384"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.7999511703848384"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -294,11 +294,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
@@ -320,10 +320,10 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -412,22 +412,18 @@
     </to>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Picture 1"/>
+        <cNvPr id="2" name="/xl/media/image1.jpeg"/>
         <cNvPicPr>
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="8242300"/>
-          <a:ext cx="1822450" cy="2012950"/>
-        </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
@@ -442,7 +438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -484,72 +480,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,55 +495,15 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -614,13 +512,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -630,7 +528,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -639,7 +537,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -648,30 +546,19 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -697,7 +584,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -732,8 +619,8 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -742,7 +629,7 @@
     <col width="13.90625" customWidth="1" style="21" min="7" max="7"/>
     <col width="6.81640625" customWidth="1" style="21" min="8" max="8"/>
     <col width="58.453125" customWidth="1" style="21" min="9" max="9"/>
-    <col hidden="1" width="16.6328125" customWidth="1" style="21" min="10" max="10"/>
+    <col width="16.6328125" customWidth="1" style="21" min="10" max="10"/>
     <col width="8.7265625" customWidth="1" style="21" min="11" max="16384"/>
   </cols>
   <sheetData>
@@ -757,7 +644,7 @@
     <row r="3" ht="23.5" customHeight="1" s="36">
       <c r="A3" s="22" t="inlineStr">
         <is>
-          <t>Cost of Capital Estimation Using Excel (RATE-Based Model)</t>
+          <t>Cost of Capital Estimation Using Excel (Yield-Based Model)</t>
         </is>
       </c>
     </row>
@@ -778,7 +665,7 @@
       </c>
     </row>
     <row r="8"/>
-    <row r="9" ht="132.5" customHeight="1" s="36">
+    <row r="9" ht="88.40000000000001" customHeight="1" s="36">
       <c r="A9" s="32" t="inlineStr">
         <is>
           <t>This workbook is designed to develop a clear and structured understanding of cost of capital estimation, with a specific focus on computing the Weighted Average Cost of Capital (WACC) using Excel. It enables learners to quantify the overall cost at which a firm finances its operations by combining the costs of equity, debt, and other capital components in proportion to their market values.
@@ -809,7 +696,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="255.5" customHeight="1" s="36">
+    <row r="16" ht="170.4" customHeight="1" s="36">
       <c r="A16" s="33" t="inlineStr">
         <is>
           <t>Cost of capital as the firm’s minimum required return
@@ -919,13 +806,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="42" customWidth="1" style="36" min="1" max="1"/>
-    <col width="56.54296875" bestFit="1" customWidth="1" style="36" min="2" max="2"/>
+    <col width="56.54296875" customWidth="1" style="36" min="2" max="2"/>
     <col width="22" customWidth="1" style="36" min="3" max="3"/>
     <col width="18" customWidth="1" style="36" min="4" max="4"/>
   </cols>
@@ -1101,16 +988,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="1" insertRows="0" insertHyperlinks="1" autoFilter="0" scenarios="1" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="0" deleteRows="0" formatCells="0" formatRows="0" sort="0" password="AE3A"/>
-  <hyperlinks>
-    <hyperlink ref="D3" location="P1_EcoGrid!A1" display="Go to sheet"/>
-    <hyperlink ref="D4" location="P2_AksharaTextiles!A1" display="Go to sheet"/>
-    <hyperlink ref="D5" location="P3_ZenithPharma!A1" display="Go to sheet"/>
-    <hyperlink ref="D6" location="P4_HorizonAuto!A1" display="Go to sheet"/>
-    <hyperlink ref="D7" location="P5_BlueWaveLog!A1" display="Go to sheet"/>
-    <hyperlink ref="D8" location="P6_VistaAgro!A1" display="Go to sheet"/>
-    <hyperlink ref="D9" location="P7_NimbusHosp!A1" display="Go to sheet"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1124,7 +1002,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1684,7 +1562,7 @@
         </is>
       </c>
       <c r="B57" s="19">
-        <f>RATE(B37,B38,-B39,B40)</f>
+        <f>YIELD(B16,B17,B11,(B39/B10)*100,(B40/B10)*100,B12,0)/B12</f>
         <v/>
       </c>
     </row>
@@ -1803,7 +1681,7 @@
     <row r="70">
       <c r="A70" s="40" t="inlineStr">
         <is>
-          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses RATE() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
+          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses YIELD() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1694,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A35:B35"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2390,7 +2268,7 @@
         </is>
       </c>
       <c r="B57" s="19">
-        <f>RATE(B37,B38,-B39,B40)</f>
+        <f>YIELD(B16,B17,B11,(B39/B10)*100,(B40/B10)*100,B12,0)/B12</f>
         <v/>
       </c>
     </row>
@@ -2509,7 +2387,7 @@
     <row r="70">
       <c r="A70" s="40" t="inlineStr">
         <is>
-          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses RATE() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
+          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses YIELD() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2400,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A35:B35"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3096,7 +2974,7 @@
         </is>
       </c>
       <c r="B57" s="19">
-        <f>RATE(B37,B38,-B39,B40)</f>
+        <f>YIELD(B16,B17,B11,(B39/B10)*100,(B40/B10)*100,B12,0)/B12</f>
         <v/>
       </c>
     </row>
@@ -3215,7 +3093,7 @@
     <row r="70">
       <c r="A70" s="40" t="inlineStr">
         <is>
-          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses RATE() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
+          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses YIELD() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3106,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A35:B35"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3802,7 +3680,7 @@
         </is>
       </c>
       <c r="B57" s="19">
-        <f>RATE(B37,B38,-B39,B40)</f>
+        <f>YIELD(B16,B17,B11,(B39/B10)*100,(B40/B10)*100,B12,0)/B12</f>
         <v/>
       </c>
     </row>
@@ -3921,7 +3799,7 @@
     <row r="70">
       <c r="A70" s="40" t="inlineStr">
         <is>
-          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses RATE() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
+          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses YIELD() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3812,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A35:B35"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4508,7 +4386,7 @@
         </is>
       </c>
       <c r="B57" s="19">
-        <f>RATE(B37,B38,-B39,B40)</f>
+        <f>YIELD(B16,B17,B11,(B39/B10)*100,(B40/B10)*100,B12,0)/B12</f>
         <v/>
       </c>
     </row>
@@ -4627,7 +4505,7 @@
     <row r="70">
       <c r="A70" s="40" t="inlineStr">
         <is>
-          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses RATE() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
+          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses YIELD() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4518,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A35:B35"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5214,7 +5092,7 @@
         </is>
       </c>
       <c r="B57" s="19">
-        <f>RATE(B37,B38,-B39,B40)</f>
+        <f>YIELD(B16,B17,B11,(B39/B10)*100,(B40/B10)*100,B12,0)/B12</f>
         <v/>
       </c>
     </row>
@@ -5333,7 +5211,7 @@
     <row r="70">
       <c r="A70" s="40" t="inlineStr">
         <is>
-          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses RATE() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
+          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses YIELD() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5224,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A35:B35"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5359,8 +5237,8 @@
   </sheetPr>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -5920,7 +5798,7 @@
         </is>
       </c>
       <c r="B57" s="19">
-        <f>RATE(B37,B38,-B39,B40)</f>
+        <f>YIELD(B16,B17,B11,(B39/B10)*100,(B40/B10)*100,B12,0)/B12</f>
         <v/>
       </c>
     </row>
@@ -6039,7 +5917,7 @@
     <row r="70">
       <c r="A70" s="40" t="inlineStr">
         <is>
-          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses RATE() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
+          <t>Notes: All rates are stored in decimal form and displayed as percentages. Debt cost uses YIELD() with net proceeds and redemption at face value. Book and market value weights are computed explicitly and used for WACC with retained earnings and new equity.</t>
         </is>
       </c>
     </row>
@@ -6052,6 +5930,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A35:B35"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>